--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H2">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I2">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J2">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N2">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O2">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P2">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q2">
-        <v>80.03302211728997</v>
+        <v>104.9443498596495</v>
       </c>
       <c r="R2">
-        <v>720.2971990556099</v>
+        <v>944.4991487368459</v>
       </c>
       <c r="S2">
-        <v>0.01168037875955599</v>
+        <v>0.0142967241661687</v>
       </c>
       <c r="T2">
-        <v>0.01168037875955599</v>
+        <v>0.0142967241661687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H3">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I3">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J3">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.161911</v>
       </c>
       <c r="O3">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P3">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q3">
-        <v>376.0080296709513</v>
+        <v>640.3946627689919</v>
       </c>
       <c r="R3">
-        <v>3384.072267038562</v>
+        <v>5763.551964920927</v>
       </c>
       <c r="S3">
-        <v>0.05487630089433131</v>
+        <v>0.08724191310289066</v>
       </c>
       <c r="T3">
-        <v>0.0548763008943313</v>
+        <v>0.08724191310289064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H4">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I4">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J4">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N4">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O4">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P4">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q4">
-        <v>52.95628469336334</v>
+        <v>100.4232323359502</v>
       </c>
       <c r="R4">
-        <v>476.60656224027</v>
+        <v>903.809091023552</v>
       </c>
       <c r="S4">
-        <v>0.007728678070045444</v>
+        <v>0.01368080563176827</v>
       </c>
       <c r="T4">
-        <v>0.007728678070045443</v>
+        <v>0.01368080563176827</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H5">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I5">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J5">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N5">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O5">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P5">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q5">
-        <v>12.95981005779533</v>
+        <v>22.287025979815</v>
       </c>
       <c r="R5">
-        <v>116.638290520158</v>
+        <v>200.583233818335</v>
       </c>
       <c r="S5">
-        <v>0.001891412895855774</v>
+        <v>0.00303619454828947</v>
       </c>
       <c r="T5">
-        <v>0.001891412895855774</v>
+        <v>0.003036194548289469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>930.1503093333334</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H6">
         <v>2790.450928</v>
       </c>
       <c r="I6">
-        <v>0.6383115534299679</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J6">
-        <v>0.6383115534299678</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N6">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O6">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P6">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q6">
-        <v>670.6244207746932</v>
+        <v>516.3196156086648</v>
       </c>
       <c r="R6">
-        <v>6035.61978697224</v>
+        <v>4646.876540477983</v>
       </c>
       <c r="S6">
-        <v>0.09787394044144219</v>
+        <v>0.07033898571777746</v>
       </c>
       <c r="T6">
-        <v>0.09787394044144218</v>
+        <v>0.07033898571777746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>930.1503093333334</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H7">
         <v>2790.450928</v>
       </c>
       <c r="I7">
-        <v>0.6383115534299679</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J7">
-        <v>0.6383115534299678</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.161911</v>
       </c>
       <c r="O7">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P7">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q7">
         <v>3150.701553355934</v>
@@ -883,10 +883,10 @@
         <v>28356.31398020341</v>
       </c>
       <c r="S7">
-        <v>0.4598275377829111</v>
+        <v>0.4292247376680205</v>
       </c>
       <c r="T7">
-        <v>0.459827537782911</v>
+        <v>0.4292247376680204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>930.1503093333334</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H8">
         <v>2790.450928</v>
       </c>
       <c r="I8">
-        <v>0.6383115534299679</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J8">
-        <v>0.6383115534299678</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N8">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O8">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P8">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q8">
-        <v>443.7390568210757</v>
+        <v>494.0760011112675</v>
       </c>
       <c r="R8">
-        <v>3993.651511389681</v>
+        <v>4446.684010001408</v>
       </c>
       <c r="S8">
-        <v>0.06476127124729156</v>
+        <v>0.06730870518001454</v>
       </c>
       <c r="T8">
-        <v>0.06476127124729154</v>
+        <v>0.06730870518001453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>930.1503093333334</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H9">
         <v>2790.450928</v>
       </c>
       <c r="I9">
-        <v>0.6383115534299679</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J9">
-        <v>0.6383115534299678</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N9">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O9">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P9">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q9">
-        <v>108.5947385645636</v>
+        <v>109.65076921576</v>
       </c>
       <c r="R9">
-        <v>977.3526470810722</v>
+        <v>986.8569229418399</v>
       </c>
       <c r="S9">
-        <v>0.01584880395832308</v>
+        <v>0.01493788664356377</v>
       </c>
       <c r="T9">
-        <v>0.01584880395832308</v>
+        <v>0.01493788664356377</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>343.5753833333333</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H10">
-        <v>1030.72615</v>
+        <v>1261.995392</v>
       </c>
       <c r="I10">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J10">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N10">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O10">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P10">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q10">
-        <v>247.7126977525833</v>
+        <v>233.5081291554417</v>
       </c>
       <c r="R10">
-        <v>2229.41427977325</v>
+        <v>2101.573162398975</v>
       </c>
       <c r="S10">
-        <v>0.03615230384604599</v>
+        <v>0.03181115817629206</v>
       </c>
       <c r="T10">
-        <v>0.03615230384604599</v>
+        <v>0.03181115817629206</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>343.5753833333333</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H11">
-        <v>1030.72615</v>
+        <v>1261.995392</v>
       </c>
       <c r="I11">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J11">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.161911</v>
       </c>
       <c r="O11">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P11">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q11">
-        <v>1163.794155741405</v>
+        <v>1424.920539546012</v>
       </c>
       <c r="R11">
-        <v>10474.14740167265</v>
+        <v>12824.28485591411</v>
       </c>
       <c r="S11">
-        <v>0.1698493469020285</v>
+        <v>0.1941190348965171</v>
       </c>
       <c r="T11">
-        <v>0.1698493469020285</v>
+        <v>0.1941190348965171</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>343.5753833333333</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H12">
-        <v>1030.72615</v>
+        <v>1261.995392</v>
       </c>
       <c r="I12">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J12">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N12">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O12">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P12">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q12">
-        <v>163.9066449986389</v>
+        <v>223.4483432206791</v>
       </c>
       <c r="R12">
-        <v>1475.15980498775</v>
+        <v>2011.035088986112</v>
       </c>
       <c r="S12">
-        <v>0.02392127204676165</v>
+        <v>0.0304406986434792</v>
       </c>
       <c r="T12">
-        <v>0.02392127204676165</v>
+        <v>0.0304406986434792</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>343.5753833333333</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H13">
-        <v>1030.72615</v>
+        <v>1261.995392</v>
       </c>
       <c r="I13">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J13">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N13">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O13">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P13">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q13">
-        <v>40.11231147903889</v>
+        <v>49.59010892863999</v>
       </c>
       <c r="R13">
-        <v>361.01080331135</v>
+        <v>446.3109803577599</v>
       </c>
       <c r="S13">
-        <v>0.005854170923469867</v>
+        <v>0.006755733964441114</v>
       </c>
       <c r="T13">
-        <v>0.005854170923469865</v>
+        <v>0.006755733964441115</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>72.47344466666667</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H14">
-        <v>217.420334</v>
+        <v>176.534003</v>
       </c>
       <c r="I14">
-        <v>0.04973458223193755</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J14">
-        <v>0.04973458223193754</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N14">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O14">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P14">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q14">
-        <v>52.25226650299665</v>
+        <v>32.66424349420377</v>
       </c>
       <c r="R14">
-        <v>470.2703985269699</v>
+        <v>293.978191447834</v>
       </c>
       <c r="S14">
-        <v>0.007625930492863506</v>
+        <v>0.004449898255196655</v>
       </c>
       <c r="T14">
-        <v>0.007625930492863505</v>
+        <v>0.004449898255196654</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>72.47344466666667</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H15">
-        <v>217.420334</v>
+        <v>176.534003</v>
       </c>
       <c r="I15">
-        <v>0.04973458223193755</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J15">
-        <v>0.04973458223193754</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.161911</v>
       </c>
       <c r="O15">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P15">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q15">
-        <v>245.4895648553638</v>
+        <v>199.3247585510815</v>
       </c>
       <c r="R15">
-        <v>2209.406083698274</v>
+        <v>1793.922826959733</v>
       </c>
       <c r="S15">
-        <v>0.03582784984461771</v>
+        <v>0.02715430698559862</v>
       </c>
       <c r="T15">
-        <v>0.0358278498446177</v>
+        <v>0.02715430698559862</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>72.47344466666667</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H16">
-        <v>217.420334</v>
+        <v>176.534003</v>
       </c>
       <c r="I16">
-        <v>0.04973458223193755</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J16">
-        <v>0.04973458223193754</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N16">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O16">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P16">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q16">
-        <v>34.57430230175445</v>
+        <v>31.25703211162311</v>
       </c>
       <c r="R16">
-        <v>311.16872071579</v>
+        <v>281.313289004608</v>
       </c>
       <c r="S16">
-        <v>0.005045928987162868</v>
+        <v>0.004258191764974412</v>
       </c>
       <c r="T16">
-        <v>0.005045928987162867</v>
+        <v>0.004258191764974411</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>72.47344466666667</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H17">
-        <v>217.420334</v>
+        <v>176.534003</v>
       </c>
       <c r="I17">
-        <v>0.04973458223193755</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J17">
-        <v>0.04973458223193754</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N17">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O17">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P17">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q17">
-        <v>8.461250507018445</v>
+        <v>6.936903647885001</v>
       </c>
       <c r="R17">
-        <v>76.15125456316601</v>
+        <v>62.432132830965</v>
       </c>
       <c r="S17">
-        <v>0.001234872907293472</v>
+        <v>0.0009450246550074962</v>
       </c>
       <c r="T17">
-        <v>0.001234872907293471</v>
+        <v>0.0009450246550074961</v>
       </c>
     </row>
   </sheetData>
